--- a/Assets/Resources/MasterData/SkillData.xlsx
+++ b/Assets/Resources/MasterData/SkillData.xlsx
@@ -5,36 +5,45 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\Original\forLasengleGame\Assets\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\Original\forLasengleGame\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B981E9-DBD0-46B2-A53E-56E225671CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82135C0-171F-4D68-99DE-3ED540E40AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6615" yWindow="870" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillData" sheetId="1" r:id="rId1"/>
+    <sheet name="reference" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Range</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Lv</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -44,6 +53,91 @@
   </si>
   <si>
     <t>effectID[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斬撃</t>
+    <rPh sb="0" eb="2">
+      <t>ザンゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイヤーボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一体</t>
+    <rPh sb="0" eb="2">
+      <t>イッタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rangeType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火炎切り</t>
+    <rPh sb="0" eb="3">
+      <t>カエンギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>硬化</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>挑発</t>
+    <rPh sb="0" eb="2">
+      <t>チョウハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筋力増強</t>
+    <rPh sb="0" eb="2">
+      <t>キンリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体回復</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -67,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -77,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,10 +208,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -392,185 +493,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>100</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <f>VLOOKUP(E2,reference!A1:B3,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
       <c r="G2" s="2">
         <v>-1</v>
       </c>
       <c r="H2" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>101</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="2">
+        <f>VLOOKUP(E3,reference!A1:B3,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
       <c r="G3" s="2">
         <v>-1</v>
       </c>
       <c r="H3" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>102</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <f>VLOOKUP(E4,reference!A1:B3,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
       <c r="G4" s="2">
         <v>-1</v>
       </c>
       <c r="H4" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>103</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="2">
+        <f>VLOOKUP(E5,reference!A1:B3,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
       <c r="G5" s="2">
         <v>-1</v>
       </c>
       <c r="H5" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>104</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <f>VLOOKUP(E6,reference!A1:B3,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6" s="2">
         <v>-1</v>
       </c>
       <c r="H6" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>105</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="D7" s="2">
+        <f>VLOOKUP(E7,reference!A1:B3,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
       <c r="G7" s="2">
         <v>-1</v>
       </c>
       <c r="H7" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>106</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <f>VLOOKUP(E8,reference!A1:B3,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
       <c r="G8" s="2">
         <v>-1</v>
       </c>
       <c r="H8" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>107</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2">
+        <f>VLOOKUP(E9,reference!A1:B3,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>-1</v>
       </c>
       <c r="H9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -578,5 +777,57 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71936DD4-22B6-4BDA-AB45-F426E4478AC6}">
+          <x14:formula1>
+            <xm:f>reference!$A$1:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3ABDE13-21FA-418A-B2B0-596F12775E5E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/Resources/MasterData/SkillData.xlsx
+++ b/Assets/Resources/MasterData/SkillData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\Original\forLasengleGame\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82135C0-171F-4D68-99DE-3ED540E40AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F6B3B8-B1E9-4716-96AC-FE4E7B71F7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="870" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillData" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -138,6 +138,10 @@
     <rPh sb="2" eb="4">
       <t>カイフク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeedMP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -493,20 +497,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.75" customWidth="1"/>
+    <col min="4" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,15 +520,15 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
@@ -534,8 +538,11 @@
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -546,26 +553,29 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <f>VLOOKUP(E2,reference!A1:B3,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <f>VLOOKUP(F2,reference!A1:B3,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
-        <v>-1</v>
-      </c>
       <c r="H2" s="2">
         <v>-1</v>
       </c>
       <c r="I2" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>101</v>
       </c>
@@ -576,26 +586,29 @@
         <v>3</v>
       </c>
       <c r="D3" s="2">
-        <f>VLOOKUP(E3,reference!A1:B3,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <f>VLOOKUP(F3,reference!A1:B3,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
-        <v>-1</v>
-      </c>
       <c r="H3" s="2">
         <v>-1</v>
       </c>
       <c r="I3" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>102</v>
       </c>
@@ -606,17 +619,17 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <f>VLOOKUP(E4,reference!A1:B3,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <f>VLOOKUP(F4,reference!A1:B3,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
       <c r="G4" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2">
         <v>-1</v>
@@ -624,8 +637,11 @@
       <c r="I4" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>103</v>
       </c>
@@ -636,26 +652,29 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <f>VLOOKUP(E5,reference!A1:B3,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <f>VLOOKUP(F5,reference!A1:B3,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="G5" s="2">
-        <v>-1</v>
-      </c>
       <c r="H5" s="2">
         <v>-1</v>
       </c>
       <c r="I5" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>104</v>
       </c>
@@ -666,26 +685,29 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <f>VLOOKUP(E6,reference!A1:B3,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <f>VLOOKUP(F6,reference!A1:B3,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
-        <v>-1</v>
-      </c>
       <c r="H6" s="2">
         <v>-1</v>
       </c>
       <c r="I6" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>105</v>
       </c>
@@ -696,26 +718,29 @@
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <f>VLOOKUP(E7,reference!A1:B3,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <f>VLOOKUP(F7,reference!A1:B3,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="G7" s="2">
-        <v>-1</v>
-      </c>
       <c r="H7" s="2">
         <v>-1</v>
       </c>
       <c r="I7" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>106</v>
       </c>
@@ -726,17 +751,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <f>VLOOKUP(E8,reference!A1:B3,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <f>VLOOKUP(F8,reference!A1:B3,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="G8" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
         <v>-1</v>
@@ -744,8 +769,11 @@
       <c r="I8" s="2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>107</v>
       </c>
@@ -756,20 +784,25 @@
         <v>3</v>
       </c>
       <c r="D9" s="2">
-        <f>VLOOKUP(E9,reference!A1:B3,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <f>VLOOKUP(F9,reference!A1:B3,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
         <v>-1</v>
       </c>
       <c r="I9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="2">
         <v>-1</v>
       </c>
     </row>
@@ -784,7 +817,7 @@
           <x14:formula1>
             <xm:f>reference!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E9</xm:sqref>
+          <xm:sqref>F2:F9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
